--- a/biology/Médecine/Classification_clinique_des_malades_aux_urgences/Classification_clinique_des_malades_aux_urgences.xlsx
+++ b/biology/Médecine/Classification_clinique_des_malades_aux_urgences/Classification_clinique_des_malades_aux_urgences.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification clinique des malades aux urgences, couramment abrégée par le sigle CCMU, est une codification évaluant l’état du patient aux urgences, son niveau de gravité clinique ainsi que son pronostic médical.
 La CCMU a été modifiée pour rajouter 2 classes de degrés de gravité du patient.
@@ -513,7 +525,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ci-après les 7 classes CCMU codifiant l’état du patient avec des exemples de suspicions de diagnostics :
 CCMU P : Patient présentant/souffrant d’un problème psychologique et/ou  psychiatrie dominant en l’absence de toute pathologie somatique instable associée.
